--- a/biology/Médecine/Fédération_française_de_cardiologie/Fédération_française_de_cardiologie.xlsx
+++ b/biology/Médecine/Fédération_française_de_cardiologie/Fédération_française_de_cardiologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_cardiologie</t>
+          <t>Fédération_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération française de cardiologie (FFC) est une association reconnue d'utilité publique qui s’efforce de réduire le nombre de décès et d’accidents d’origine cardiovasculaire. Créée en 1964, la FFC regroupe 27 associations de cardiologie régionales et 269 clubs « Cœur et Santé » représentant plus de 1 600 bénévoles. Les actions de la FFC s’articulent autour de quatre missions principales : l'information des publics, le soutien à la recherche, l'accompagnement des personnes et la sensibilisation aux gestes qui sauvent.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_cardiologie</t>
+          <t>Fédération_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La FFC est une association loi de 1901 reconnue d'utilité publique depuis 1977 et indépendante du ministère de la Santé, dirigée et animée par des cardiologues bénévoles engagés au quotidien dans la lutte contre les maladies du cœur. La direction est assurée par un conseil d'administration, élu par l’assemblée générale, et composé de représentants des différentes associations de cardiologie régionales membres, avec à sa tête un président élu pour un mandat de 4 ans non renouvelable. Basée à Paris, la délégation nationale assure le fonctionnement de la FFC.
 La FFC ne reçoit aucune subvention de l’État et/ou de collectivités locales. Son financement repose à 98 % sur la générosité du public (dons, legs et assurances-vie).
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_cardiologie</t>
+          <t>Fédération_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération française de cardiologie agit pour la réduction du nombre de décès et d'accidents d'origine cardio-vasculaire. Les actions de la FFC s’articulent autour de quatre missions principales : la prévention par l’information, la recherche en cardiologie clinique, la réadaptation des cardiaques et l’information sur les gestes qui sauvent.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_cardiologie</t>
+          <t>Fédération_française_de_cardiologie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,87 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Parcours du Cœur
-Les Parcours du Cœur ont pour objectif principal de promouvoir l'activité physique comme moyen efficace de prévention des maladies cardiovasculaires.[réf. nécessaire]
-« Jamais la première cigarette »
-« Jamais la première cigarette » est une campagne nationale de prévention du tabagisme des jeunes[1], qui invite chaque année les 9-15 ans à nouer ou à renouer le dialogue autour du tabac.
-La Semaine du Cœur
-La Semaine du Cœur rassemble de très nombreux événements dans toute la France pour sensibiliser le public sur les maladies cardio-vasculaires (conférences, journées portes ouvertes,…). Pour organiser ces manifestations, la FFC s’appuie sur les 26 associations de cardiologie régionales et les 240 clubs Cœur et Santé qui composent son réseau.[réf. nécessaire]
+          <t>Les Parcours du Cœur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Parcours du Cœur ont pour objectif principal de promouvoir l'activité physique comme moyen efficace de prévention des maladies cardiovasculaires.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fédération_française_de_cardiologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_cardiologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Actions et campagnes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>« Jamais la première cigarette »</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Jamais la première cigarette » est une campagne nationale de prévention du tabagisme des jeunes, qui invite chaque année les 9-15 ans à nouer ou à renouer le dialogue autour du tabac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fédération_française_de_cardiologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9d%C3%A9ration_fran%C3%A7aise_de_cardiologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Actions et campagnes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La Semaine du Cœur</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Semaine du Cœur rassemble de très nombreux événements dans toute la France pour sensibiliser le public sur les maladies cardio-vasculaires (conférences, journées portes ouvertes,…). Pour organiser ces manifestations, la FFC s’appuie sur les 26 associations de cardiologie régionales et les 240 clubs Cœur et Santé qui composent son réseau.[réf. nécessaire]
 </t>
         </is>
       </c>
